--- a/verif/CV32E40P/SimulationVerificationPlan/base_instruction_set/CV32E40P_RV32Z_Extention_Instructions.xlsx
+++ b/verif/CV32E40P/SimulationVerificationPlan/base_instruction_set/CV32E40P_RV32Z_Extention_Instructions.xlsx
@@ -25,7 +25,7 @@
     <author>MT</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t xml:space="preserve">Requirement Location</t>
   </si>
@@ -335,6 +335,61 @@
     <t xml:space="preserve">Functional coverage of fence instruction</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Note: the functional coverage code for the RV32IMC instructions is in class </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">uvme_rv32isa_covg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, implemented in file </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">core-v-verif/cv32/env/uvme_cv32/cov/uvme_rv32isa_covg.sv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.  The “link to coverage” below will provide only the name of the covergroup in that model.
+fence_cg</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">FENCE.I</t>
   </si>
   <si>
@@ -347,6 +402,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Demonstrate that a FENCE.I “protects” a preceding STORE.
 The pseudo-code below should do it assuming that the I fetch bus has no wait states and the D write bus has wait states enabled.
@@ -358,6 +414,7 @@
         <color rgb="FF2A6099"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">addr-4:    STORE “pass” to &lt;addr_p4&gt;
 addr:        NOP or FENCE
@@ -374,6 +431,9 @@
     <t xml:space="preserve">Running and passing test.</t>
   </si>
   <si>
+    <t xml:space="preserve">fence_i_cg</t>
+  </si>
+  <si>
     <t xml:space="preserve">FENCE future extensions</t>
   </si>
   <si>
@@ -417,7 +477,10 @@
     <t xml:space="preserve">Correct operation of Zifencei instruction regardless of state of unused fields.</t>
   </si>
   <si>
-    <t xml:space="preserve">Functional coverage of non-zero values in reserved fields of Zifencei.</t>
+    <t xml:space="preserve">Directed Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core-v-verif/cv32/tests/programs/custom/generic_exception_test/generic_exception_test.S</t>
   </si>
   <si>
     <t xml:space="preserve">ISA Chapter 9</t>
@@ -542,6 +605,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">csrrw_cg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSRRS</t>
   </si>
   <si>
@@ -589,6 +655,9 @@
 Check read\wite side-affects for csr.  (e.g. raising illegal instruction exceptions on accesses to read-only CSRs).</t>
   </si>
   <si>
+    <t xml:space="preserve">csrrs_cg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSRRC</t>
   </si>
   <si>
@@ -597,6 +666,9 @@
 Note that not all bits of csr will be writable.</t>
   </si>
   <si>
+    <t xml:space="preserve">csrrc_cg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSRRWI</t>
   </si>
   <si>
@@ -639,6 +711,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">csrrwi_cg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSRRSI</t>
   </si>
   <si>
@@ -681,6 +756,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">csrrsi_cg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSRRCI</t>
   </si>
   <si>
@@ -723,24 +801,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">CSR read/write rules
-CSRs that may be modified as side effects of instruction execution. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">minstret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a CSR access instruction reads minstret, it reads the value prior to the execution of the instruction.
-If a CSR access instruction writes minstret, the write is done instead of the increment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The value written to minstret by one instruction will be the value read by the following instruction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail: read value != write value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Directed Sequence checked by ISS (RM).</t>
+    <t xml:space="preserve">csrrci_cg</t>
   </si>
   <si>
     <t xml:space="preserve"> -------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- END -----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
@@ -800,16 +861,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF2A6099"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF2A6099"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -883,7 +947,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -924,16 +988,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1029,27 +1089,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="35.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="54.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="59.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="true" ht="80.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="10" customFormat="true" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1106,215 +1166,211 @@
       <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" s="11" customFormat="true" ht="145.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="10" customFormat="true" ht="145.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="E3" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" s="11" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="10" customFormat="true" ht="66.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" s="11" customFormat="true" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="10" customFormat="true" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" s="11" customFormat="true" ht="138.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="10" customFormat="true" ht="138.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" s="11" customFormat="true" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="10" customFormat="true" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" s="11" customFormat="true" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="10" customFormat="true" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="9" s="11" customFormat="true" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="10" customFormat="true" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" s="11" customFormat="true" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="10" customFormat="true" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="11" s="11" customFormat="true" ht="99.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>56</v>
-      </c>
+    <row r="11" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="11"/>
     </row>
-    <row r="12" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="10"/>
+    <row r="12" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
-    <row r="13" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A2:A4"/>
@@ -1324,7 +1380,7 @@
     <mergeCell ref="G5:G10"/>
     <mergeCell ref="H5:H10"/>
     <mergeCell ref="F6:F10"/>
-    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A12:I12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
